--- a/results/results_Group_top3.xlsx
+++ b/results/results_Group_top3.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4597701149425287</v>
+        <v>0.2183908045977012</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4985057471264369</v>
+        <v>0.1615145420818997</v>
       </c>
     </row>
   </sheetData>
@@ -531,11 +531,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['56121', '56200', '56140']</t>
+          <t>['472', '561', '107']</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -556,11 +556,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['58120', '58190', '66221']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -581,11 +581,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['23951', '08101', '43909']</t>
+          <t>['663', '682', '643']</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -606,11 +606,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['64202', '64300', '64201']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -631,11 +631,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['28300', '26513', '71121']</t>
+          <t>['711', '663', '643']</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -652,11 +652,11 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['66301', '43901', '66199']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -677,11 +677,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['82999', '86909', '65124']</t>
+          <t>['661', '663', '643']</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -702,11 +702,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['64202', '64300', '64201']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -727,11 +727,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['64202', '64201', '64300']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -752,11 +752,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['47101', '82199', '59131']</t>
+          <t>['663', '472', '643']</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12">
@@ -777,11 +777,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['43904', '25998', '25111']</t>
+          <t>['259', '251', '162']</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.49</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
@@ -798,11 +798,11 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['64202', '64201', '64300']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14">
@@ -823,11 +823,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['77310', '50014', '52227']</t>
+          <t>['663', '682', '643']</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="15">
@@ -844,11 +844,11 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['20299', '10620', '23999']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -869,11 +869,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['52233', '52292', '68106']</t>
+          <t>['192', '522', '352']</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.68</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
@@ -894,11 +894,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['64300', '64202', '64929']</t>
+          <t>['682', '663', '661']</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="18">
@@ -919,11 +919,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['74193', '47537', '47411']</t>
+          <t>['477', '475', '476']</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -940,11 +940,11 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['26201', '26301', '58202']</t>
+          <t>['264', '262', '741']</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -965,11 +965,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['62021', '61099', '43293']</t>
+          <t>['701', '663', '711']</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -990,11 +990,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['10733', '11042', '10731']</t>
+          <t>['472', '107', '103']</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="22">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['28300', '43909', '25119']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="23">
@@ -1036,11 +1036,11 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['70101', '64202', '82110']</t>
+          <t>['663', '701', '643']</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.78</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="24">
@@ -1061,11 +1061,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['28300', '28169', '28191']</t>
+          <t>['282', '242', '106']</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="25">
@@ -1086,11 +1086,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['68203', '77392', '68106']</t>
+          <t>['663', '682', '643']</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="26">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['64202', '70101', '66301']</t>
+          <t>['661', '663', '701']</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="27">
@@ -1136,11 +1136,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['64202', '64201', '64300']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="28">
@@ -1161,11 +1161,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['68101', '68203', '71112']</t>
+          <t>['682', '663', '643']</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.68</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29">
@@ -1186,11 +1186,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['71126', '28300', '42909']</t>
+          <t>['711', '282', '281']</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="30">
@@ -1211,11 +1211,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['26513', '28300', '71126']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="31">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['68203', '64929', '78300']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.79</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="32">
@@ -1257,11 +1257,11 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['64202', '68203', '70101']</t>
+          <t>['682', '663', '681']</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1282,11 +1282,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['64929', '64924', '64300']</t>
+          <t>['663', '661', '643']</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.98</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="34">
@@ -1303,11 +1303,11 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['55101', '93111', '84110']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1324,11 +1324,11 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['64929', '66129', '66121']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.77</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="36">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['81291', '84235', '52292']</t>
+          <t>['661', '466', '106']</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.96</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="37">
@@ -1370,11 +1370,11 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['47103', '47102', '47101']</t>
+          <t>['471', '478', '561']</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="38">
@@ -1395,11 +1395,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['70101', '82110', '82999']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1420,11 +1420,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['10619', '10611', '10302']</t>
+          <t>['661', '466', '106']</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="40">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['74199', '74113', '74909']</t>
+          <t>['663', '474', '741']</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.79</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="41">
@@ -1470,11 +1470,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['64202', '64300', '64201']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['64202', '64201', '64300']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.65</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="43">
@@ -1516,11 +1516,11 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['26513', '26302', '71122']</t>
+          <t>['661', '663', '649']</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1541,11 +1541,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['20299', '13100', '20294']</t>
+          <t>['202', '329', '201']</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.58</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="45">
@@ -1566,11 +1566,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['23999', '74904', '23993']</t>
+          <t>['663', '661', '466']</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.96</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="46">
@@ -1587,11 +1587,11 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['28223', '28222', '28224']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1608,11 +1608,11 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['70101', '82110', '82999']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1629,11 +1629,11 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['64202', '68203', '74902']</t>
+          <t>['682', '471', '663']</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1654,11 +1654,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['28223', '28221', '28222']</t>
+          <t>['282', '259', '281']</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="50">
@@ -1679,11 +1679,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['70101', '84110', '68106']</t>
+          <t>['711', '701', '620']</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1704,11 +1704,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['25111', '28300', '25119']</t>
+          <t>['259', '282', '251']</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="52">
@@ -1725,11 +1725,11 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['72106', '72105', '71122']</t>
+          <t>['711', '721', '265']</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="53">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['71129', '71125', '62021']</t>
+          <t>['474', '620', '741']</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.91</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="54">
@@ -1771,11 +1771,11 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['71122', '58120', '62011']</t>
+          <t>['474', '741', '661']</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1796,11 +1796,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['68203', '68106', '64929']</t>
+          <t>['682', '663', '592']</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="56">
@@ -1821,11 +1821,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['64202', '64300', '64201']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1846,11 +1846,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['64300', '68203', '66303']</t>
+          <t>['663', '682', '643']</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1871,11 +1871,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['70206', '64202', '70101']</t>
+          <t>['522', '500', '301']</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.98</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="59">
@@ -1896,11 +1896,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['70101', '82110', '82999']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1921,11 +1921,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['70101', '64202', '66301']</t>
+          <t>['701', '663', '661']</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>03209</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['03202', '22119', '03209']</t>
+          <t>['011', '014', '103']</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="62">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['64202', '74902', '66191']</t>
+          <t>['663', '701', '643']</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="63">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>9001</t>
+          <t>09001</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1996,11 +1996,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['09001', '09002', '28242']</t>
+          <t>['663', '661', '643']</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="64">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['56200', '56122', '56140']</t>
+          <t>['561', '472', '478']</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="65">
@@ -2046,11 +2046,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['50021', '50014', '77310']</t>
+          <t>['522', '500', '510']</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.78</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="66">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['71126', '71129', '28300']</t>
+          <t>['663', '711', '643']</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['49102', '61013', '49212']</t>
+          <t>['492', '491', '522']</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="68">
@@ -2121,11 +2121,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['47630', '47312', '68104']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.75</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="69">
@@ -2146,11 +2146,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['70101', '64202', '82110']</t>
+          <t>['663', '701', '643']</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.99</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="70">
@@ -2167,11 +2167,11 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['66191', '82999', '69101']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.85</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="71">
@@ -2192,11 +2192,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['68203', '78300', '82110']</t>
+          <t>['663', '701', '682']</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.91</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="72">
@@ -2213,11 +2213,11 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['28300', '71129', '28169']</t>
+          <t>['303', '281', '711']</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="73">
@@ -2238,11 +2238,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['66301', '66110', '64202']</t>
+          <t>['649', '661', '663']</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="74">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['52239', '52234', '49231']</t>
+          <t>['522', '500', '510']</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="75">
@@ -2284,11 +2284,11 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['52292', '61013', '82199']</t>
+          <t>['492', '522', '821']</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.75</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="76">
@@ -2305,11 +2305,11 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['61099', '61013', '43293']</t>
+          <t>['474', '620', '663']</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.72</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="77">
@@ -2330,11 +2330,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['47802', '47801', '46900']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2355,11 +2355,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['25949', '64202', '46900']</t>
+          <t>['466', '252', '465']</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="79">
@@ -2380,11 +2380,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['61099', '62021', '70101']</t>
+          <t>['610', '631', '620']</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="80">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['64202', '64201', '70101']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.78</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="81">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['25949', '61013', '25941']</t>
+          <t>['663', '661', '466']</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="82">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['17010', '22213', '17022']</t>
+          <t>['170', '329', '181']</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="83">
@@ -2480,11 +2480,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['47101', '46900', '47102']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['47531', '47532', '47529']</t>
+          <t>['475', '474', '476']</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.89</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="85">
@@ -2530,11 +2530,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['82199', '18114', '17010']</t>
+          <t>['651', '682', '661']</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.77</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="86">
@@ -2551,11 +2551,11 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['71129', '71125', '62011']</t>
+          <t>['711', '741', '281']</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.44</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="87">
@@ -2576,11 +2576,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['95303', '52292', '81211']</t>
+          <t>['663', '661', '701']</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.76</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['561', '562', '561']</t>
+          <t>['472', '561', '107']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2692,17 +2692,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Restaurants, cafes, food courts, food kiosks and bars</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Food caterers</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
+          <t>Manufacture of other food products</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['581', '581', '662']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2744,17 +2744,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Publishing of books, periodicals and other publishing activities</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Publishing of books, periodicals and other publishing activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Activities auxiliary to insurance and pension funding</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['239', '081', '439']</t>
+          <t>['663', '682', '643']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Quarrying of stone, sand and clay</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Other specialised construction activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['642', '643', '642']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['283', '265', '711']</t>
+          <t>['711', '663', '643']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Architectural and engineering activities and related technical consultancy</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['663', '439', '661']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Other specialised construction activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['829', '869', '651']</t>
+          <t>['661', '663', '643']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2996,17 +2996,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Business support service activities n.e.c.</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Other health services</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Insurance underwriting</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['642', '643', '642']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['642', '642', '643']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3100,17 +3100,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['471', '821', '591']</t>
+          <t>['663', '472', '643']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3152,17 +3152,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Retail sale in non-specialised stores</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Office administrative and support activities</t>
+          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Movie, video, television and other programme production activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['439', '259', '251']</t>
+          <t>['259', '251', '162']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3204,17 +3204,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Other specialised construction activities</t>
+          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
+          <t>Manufacture of structural metal products, tanks, reservoirs and steam generators</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Manufacture of structural metal products, tanks, reservoirs and steam generators</t>
+          <t>Manufacture of products of wood, cork, straw and plaiting materials</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['642', '642', '643']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3248,17 +3248,17 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['773', '500', '522']</t>
+          <t>['663', '682', '643']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3300,17 +3300,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Renting and leasing of other machinery, equipment and tangible goods</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Water transport</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Support activities for transportation</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['202', '106', '239']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3344,17 +3344,17 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Manufacture of other chemical products</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Manufacture of grain mill products, starches and starch products</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['522', '522', '681']</t>
+          <t>['192', '522', '352']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3396,17 +3396,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>Manufacture of refined petroleum products</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>Support activities for transportation</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Support activities for transportation</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Real estate activities with own or leased property</t>
+          <t>Manufacture of gas; distribution of gaseous fuels through mains</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['643', '642', '649']</t>
+          <t>['682', '663', '661']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3448,17 +3448,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Other financial services activities, except insurance and pension funding activities</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['741', '475', '474']</t>
+          <t>['477', '475', '476']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Specialised design activities</t>
+          <t>Retail sale of other goods in specialised stores</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Retail sale of information and communications equipment in specialised stores</t>
+          <t>Retail sale of cultural and recreation goods in specialised stores</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['262', '263', '582']</t>
+          <t>['264', '262', '741']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3544,17 +3544,17 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
+          <t>Manufacture of consumer electronics</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>Manufacture of computers and peripheral equipment</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Manufacture of communications equipment</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software publishing</t>
+          <t>Specialised design activities</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['620', '610', '432']</t>
+          <t>['701', '663', '711']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3596,17 +3596,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Computer programming, information technology consultancy and related activities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Telecommunications</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Electricity, plumbing and construction installation activities</t>
+          <t>Architectural and engineering activities and related technical consultancy</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['107', '110', '107']</t>
+          <t>['472', '107', '103']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3648,17 +3648,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>Manufacture of other food products</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Manufacture of beverages</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Manufacture of other food products</t>
+          <t>Processing and preserving of fruits and vegetables</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['283', '439', '251']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3700,17 +3700,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Other specialised construction activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Manufacture of structural metal products, tanks, reservoirs and steam generators</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['701', '642', '821']</t>
+          <t>['663', '701', '643']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3744,17 +3744,17 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Activities of holding companies</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Office administrative and support activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['283', '281', '281']</t>
+          <t>['282', '242', '106']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Manufacture of general purpose machinery</t>
+          <t>Manufacture of basic precious and non-ferrous metals</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Manufacture of general purpose machinery</t>
+          <t>Manufacture of grain mill products, starches and starch products</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['682', '773', '681']</t>
+          <t>['663', '682', '643']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3848,17 +3848,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Renting and leasing of other machinery, equipment and tangible goods</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Real estate activities with own or leased property</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['642', '701', '663']</t>
+          <t>['661', '663', '701']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3900,17 +3900,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>Activities of head offices; centralised administrative offices and business representative offices</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Fund management activities</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['642', '642', '643']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3952,17 +3952,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['681', '682', '711']</t>
+          <t>['682', '663', '643']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4004,17 +4004,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Real estate activities with own or leased property</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['711', '283', '429']</t>
+          <t>['711', '282', '281']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Construction of other civil engineering projects</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['265', '283', '711']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['682', '649', '783']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Management of human resource functions</t>
+          <t>Fund management activities</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['642', '682', '701']</t>
+          <t>['682', '663', '681']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4204,17 +4204,17 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Real estate activities with own or leased property</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['649', '649', '643']</t>
+          <t>['663', '661', '643']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Other financial services activities, except insurance and pension funding activities</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Other financial services activities, except insurance and pension funding activities</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4289,7 +4289,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['551', '931', '841']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4300,17 +4300,17 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Short term accommodation activities</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Sports activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Administration of the state and the economic and social policy of the community</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['649', '661', '661']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4344,17 +4344,17 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>Other financial services activities, except insurance and pension funding activities</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Fund management activities</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['812', '842', '522']</t>
+          <t>['661', '466', '106']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4396,17 +4396,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cleaning activities</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Provision of services to the community as a whole</t>
+          <t>Other specialised wholesale</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Support activities for transportation</t>
+          <t>Manufacture of grain mill products, starches and starch products</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['471', '471', '471']</t>
+          <t>['471', '478', '561']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4445,12 +4445,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Retail sale in non-specialised stores</t>
+          <t>Retail sale via stalls and markets</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Retail sale in non-specialised stores</t>
+          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['701', '821', '829']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4492,17 +4492,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Trusts, funds and similar financial entities</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>Activities of head offices; centralised administrative offices and business representative offices</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Office administrative and support activities</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Business support service activities n.e.c.</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['106', '106', '103']</t>
+          <t>['661', '466', '106']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4544,17 +4544,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Other specialised wholesale</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>Manufacture of grain mill products, starches and starch products</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Manufacture of grain mill products, starches and starch products</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Processing and preserving of fruits and vegetables</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['741', '741', '749']</t>
+          <t>['663', '474', '741']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4596,17 +4596,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Retail sale of information and communications equipment in specialised stores</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>Specialised design activities</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Specialised design activities</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Professional, scientific and technical activities n.e.c.</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['642', '643', '642']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['642', '642', '643']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4700,17 +4700,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['265', '263', '711']</t>
+          <t>['661', '663', '649']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4744,17 +4744,17 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Manufacture of communications equipment</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Other financial services activities, except insurance and pension funding activities</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['202', '131', '202']</t>
+          <t>['202', '329', '201']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Spinning, weaving and finishing of textiles</t>
+          <t>Other manufacturing n.e.c.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Manufacture of other chemical products</t>
+          <t>Manufacture of basic chemicals, fertilisers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['239', '749', '239']</t>
+          <t>['663', '661', '466']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4848,17 +4848,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Professional, scientific and technical activities n.e.c.</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
+          <t>Other specialised wholesale</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['282', '282', '282']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4892,17 +4892,17 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Manufacture of special purpose machinery</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Manufacture of special purpose machinery</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Manufacture of special purpose machinery</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['701', '821', '829']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4936,17 +4936,17 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Trusts, funds and similar financial entities</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>Activities of head offices; centralised administrative offices and business representative offices</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Office administrative and support activities</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Business support service activities n.e.c.</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['642', '682', '749']</t>
+          <t>['682', '471', '663']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4980,17 +4980,17 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Retail sale in non-specialised stores</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Professional, scientific and technical activities n.e.c.</t>
+          <t>Fund management activities</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['282', '282', '282']</t>
+          <t>['282', '259', '281']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5037,12 +5037,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Manufacture of special purpose machinery</t>
+          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Manufacture of special purpose machinery</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['701', '841', '681']</t>
+          <t>['711', '701', '620']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5084,17 +5084,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
+          <t>Architectural and engineering activities and related technical consultancy</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Administration of the state and the economic and social policy of the community</t>
-        </is>
-      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Real estate activities with own or leased property</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['251', '283', '251']</t>
+          <t>['259', '282', '251']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5136,12 +5136,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Manufacture of structural metal products, tanks, reservoirs and steam generators</t>
+          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5169,7 +5169,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['721', '721', '711']</t>
+          <t>['711', '721', '265']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5180,17 +5180,17 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
+          <t>Architectural and engineering activities and related technical consultancy</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>Research and experimental development on natural sciences and engineering</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Research and experimental development on natural sciences and engineering</t>
-        </is>
-      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['711', '711', '620']</t>
+          <t>['474', '620', '741']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5232,17 +5232,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Retail sale of information and communications equipment in specialised stores</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Computer programming, information technology consultancy and related activities</t>
+          <t>Specialised design activities</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['711', '581', '620']</t>
+          <t>['474', '741', '661']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5276,17 +5276,17 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Retail sale of information and communications equipment in specialised stores</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Publishing of books, periodicals and other publishing activities</t>
+          <t>Specialised design activities</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Computer programming, information technology consultancy and related activities</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['682', '681', '649']</t>
+          <t>['682', '663', '592']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5333,12 +5333,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Real estate activities with own or leased property</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Other financial services activities, except insurance and pension funding activities</t>
+          <t>Sound recording and music publishing activities</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['642', '643', '642']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['643', '682', '663']</t>
+          <t>['663', '682', '643']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5432,17 +5432,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Real estate activities on a fee or commission basis</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>Trusts, funds and similar financial entities</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Real estate activities on a fee or commission basis</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Fund management activities</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['702', '642', '701']</t>
+          <t>['522', '500', '301']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5484,17 +5484,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Management consultancy activities</t>
+          <t>Support activities for transportation</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Water transport</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Building and repairing of ships and boats</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['701', '821', '829']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5536,17 +5536,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Office administrative and support activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Business support service activities n.e.c.</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['701', '642', '663']</t>
+          <t>['701', '663', '661']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['032', '221', '032']</t>
+          <t>['011', '014', '103']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5640,17 +5640,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Operation of fish hatcheries and fish farms</t>
+          <t>Growing of crops, market gardening and horticulture</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Manufacture of rubber products</t>
+          <t>Animal production</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Operation of fish hatcheries and fish farms</t>
+          <t>Processing and preserving of fruits and vegetables</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['642', '749', '661']</t>
+          <t>['663', '701', '643']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5692,17 +5692,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Professional, scientific and technical activities n.e.c.</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['090', '090', '282']</t>
+          <t>['663', '661', '643']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5744,17 +5744,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Service activities incidental to oil and gas extraction (excluding surveying and engineering design and consultancy services supporting mining, oil and gas extraction and offshore exploration activities)</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Service activities incidental to oil and gas extraction (excluding surveying and engineering design and consultancy services supporting mining, oil and gas extraction and offshore exploration activities)</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Manufacture of special purpose machinery</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['562', '561', '561']</t>
+          <t>['561', '472', '478']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5796,17 +5796,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Food caterers</t>
+          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
+          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
+          <t>Retail sale via stalls and markets</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['500', '500', '773']</t>
+          <t>['522', '500', '510']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5848,17 +5848,17 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
+          <t>Support activities for transportation</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>Water transport</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Water transport</t>
-        </is>
-      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Renting and leasing of other machinery, equipment and tangible goods</t>
+          <t>Air transport</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['711', '711', '283']</t>
+          <t>['663', '711', '643']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5900,17 +5900,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>Architectural and engineering activities and related technical consultancy</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
-        </is>
-      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['491', '610', '492']</t>
+          <t>['492', '491', '522']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5952,17 +5952,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
+          <t>Other land transport</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>Transport via railways</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Telecommunications</t>
-        </is>
-      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Other land transport</t>
+          <t>Support activities for transportation</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['476', '473', '681']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6004,17 +6004,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Retail sale of cultural and recreation goods in specialised stores</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Retail sale of motor vehicles, parts, accessories and automotive fuel in specialised stores</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Real estate activities with own or leased property</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['701', '642', '821']</t>
+          <t>['663', '701', '643']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6056,17 +6056,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Activities of holding companies</t>
-        </is>
-      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Office administrative and support activities</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['661', '829', '691']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6100,17 +6100,17 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Business support service activities n.e.c.</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Legal activities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['682', '783', '821']</t>
+          <t>['663', '701', '682']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6152,17 +6152,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
           <t>Real estate activities on a fee or commission basis</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Management of human resource functions</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Office administrative and support activities</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['283', '711', '281']</t>
+          <t>['303', '281', '711']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6196,17 +6196,17 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Manufacture of air and spacecraft and related machinery</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
+          <t>Manufacture of general purpose machinery</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
           <t>Architectural and engineering activities and related technical consultancy</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['663', '661', '642']</t>
+          <t>['649', '661', '663']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6248,17 +6248,17 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
+          <t>Other financial services activities, except insurance and pension funding activities</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
           <t>Fund management activities</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Activities of holding companies</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['522', '522', '492']</t>
+          <t>['522', '500', '510']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6305,12 +6305,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Support activities for transportation</t>
+          <t>Water transport</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Other land transport</t>
+          <t>Air transport</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['522', '610', '821']</t>
+          <t>['492', '522', '821']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6344,12 +6344,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
+          <t>Other land transport</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>Support activities for transportation</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Telecommunications</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6377,7 +6377,7 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['610', '610', '432']</t>
+          <t>['474', '620', '663']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6388,17 +6388,17 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Telecommunications</t>
+          <t>Retail sale of information and communications equipment in specialised stores</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Telecommunications</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Electricity, plumbing and construction installation activities</t>
+          <t>Fund management activities</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['478', '478', '469']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6440,17 +6440,17 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Retail sale via stalls and markets</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Retail sale via stalls and markets</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Non-specialised wholesale trade</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['259', '642', '469']</t>
+          <t>['466', '252', '465']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6492,17 +6492,17 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
+          <t>Other specialised wholesale</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Manufacture of weapons and ammunition</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Non-specialised wholesale trade</t>
+          <t>Wholesale of machinery, equipment and supplies</t>
         </is>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['610', '620', '701']</t>
+          <t>['610', '631', '620']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6549,12 +6549,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
+          <t>Data analytics, processing, hosting and related activities; internet search engines</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
           <t>Computer programming, information technology consultancy and related activities</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['642', '642', '701']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['259', '610', '259']</t>
+          <t>['663', '661', '466']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6648,17 +6648,17 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Telecommunications</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
+          <t>Other specialised wholesale</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['170', '222', '170']</t>
+          <t>['170', '329', '181']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6705,12 +6705,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Manufacture of plastic products</t>
+          <t>Other manufacturing n.e.c.</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Manufacture of paper and paper products</t>
+          <t>Printing and service activities related to printing</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['471', '469', '471']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6752,17 +6752,17 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Retail sale in non-specialised stores</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Non-specialised wholesale trade</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Retail sale in non-specialised stores</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['475', '475', '475']</t>
+          <t>['475', '474', '476']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6809,12 +6809,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Retail sale of other household equipment in specialised stores</t>
+          <t>Retail sale of information and communications equipment in specialised stores</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Retail sale of other household equipment in specialised stores</t>
+          <t>Retail sale of cultural and recreation goods in specialised stores</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['821', '181', '170']</t>
+          <t>['651', '682', '661']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6856,17 +6856,17 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Office administrative and support activities</t>
+          <t>Insurance underwriting</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Printing and service activities related to printing</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Manufacture of paper and paper products</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['711', '711', '620']</t>
+          <t>['711', '741', '281']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Specialised design activities</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Computer programming, information technology consultancy and related activities</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['953', '522', '812']</t>
+          <t>['663', '661', '701']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6952,17 +6952,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Repair and maintenance (including inspection) of vehicles</t>
+          <t>Fund management activities</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Support activities for transportation</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cleaning activities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>

--- a/results/results_Group_top3.xlsx
+++ b/results/results_Group_top3.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2183908045977012</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1615145420818997</v>
+        <v>0.1455792876362073</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +531,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['472', '561', '107']</t>
+          <t>['561', '107', '472']</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -556,11 +556,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['821', '181', '741']</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -581,11 +581,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['663', '682', '643']</t>
+          <t>['466', '439', '239']</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -631,11 +631,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['711', '663', '643']</t>
+          <t>['281', '282', '265']</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['661', '663', '643']</t>
+          <t>['812', '910', '960']</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -752,7 +752,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['663', '472', '643']</t>
+          <t>['472', '107', '103']</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -823,11 +823,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['663', '682', '643']</t>
+          <t>['681', '772', '682']</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,7 +844,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['477', '475', '472']</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -869,11 +869,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['192', '522', '352']</t>
+          <t>['192', '090', '201']</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -894,7 +894,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['682', '663', '661']</t>
+          <t>['661', '682', '649']</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -940,7 +940,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['264', '262', '741']</t>
+          <t>['262', '264', '261']</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -965,7 +965,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['701', '663', '711']</t>
+          <t>['620', '631', '741']</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -990,7 +990,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['472', '107', '103']</t>
+          <t>['107', '472', '103']</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['239', '439', '431']</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1036,11 +1036,11 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['663', '701', '643']</t>
+          <t>['631', '620', '701']</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['282', '242', '106']</t>
+          <t>['282', '439', '281']</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['663', '682', '643']</t>
+          <t>['681', '682', '772']</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['661', '663', '701']</t>
+          <t>['663', '661', '643']</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="27">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['682', '663', '643']</t>
+          <t>['682', '681', '431']</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1186,11 +1186,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['711', '282', '281']</t>
+          <t>['429', '422', '439']</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['661', '649', '643']</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['661', '649', '663']</t>
+          <t>['661', '662', '649']</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1257,7 +1257,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['682', '663', '681']</t>
+          <t>['701', '682', '711']</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['663', '661', '643']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1303,11 +1303,11 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['932', '551', '561']</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="35">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['661', '466', '106']</t>
+          <t>['631', '592', '620']</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1370,7 +1370,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['471', '478', '561']</t>
+          <t>['471', '492', '472']</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1420,11 +1420,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['661', '466', '106']</t>
+          <t>['106', '107', '104']</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['663', '474', '741']</t>
+          <t>['741', '329', '181']</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1516,11 +1516,11 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['661', '663', '649']</t>
+          <t>['281', '282', '265']</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="44">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['202', '329', '201']</t>
+          <t>['202', '329', '210']</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1566,11 +1566,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['663', '661', '466']</t>
+          <t>['202', '201', '106']</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1587,7 +1587,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['259', '282', '281']</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1608,7 +1608,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1629,7 +1629,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['682', '471', '663']</t>
+          <t>['471', '681', '682']</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['282', '259', '281']</t>
+          <t>['282', '281', '265']</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['711', '701', '620']</t>
+          <t>['701', '821', '522']</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['259', '282', '251']</t>
+          <t>['251', '439', '259']</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1725,7 +1725,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['711', '721', '265']</t>
+          <t>['282', '265', '202']</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['474', '620', '741']</t>
+          <t>['271', '432', '274']</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1771,7 +1771,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['474', '741', '661']</t>
+          <t>['701', '702', '749']</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['682', '663', '592']</t>
+          <t>['682', '681', '663']</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['663', '682', '643']</t>
+          <t>['682', '681', '663']</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1871,11 +1871,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['522', '500', '301']</t>
+          <t>['522', '711', '439']</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="59">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['701', '663', '661']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['011', '014', '103']</t>
+          <t>['032', '014', '011']</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="62">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['663', '701', '643']</t>
+          <t>['682', '663', '661']</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="63">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['663', '661', '643']</t>
+          <t>['192', '090', '352']</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['561', '472', '478']</t>
+          <t>['107', '106', '103']</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['663', '711', '643']</t>
+          <t>['282', '281', '711']</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['492', '491', '522']</t>
+          <t>['522', '510', '500']</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="68">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['682', '681', '475']</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2146,11 +2146,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['663', '701', '643']</t>
+          <t>['631', '620', '701']</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2167,11 +2167,11 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['749', '661', '702']</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="71">
@@ -2192,11 +2192,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['663', '701', '682']</t>
+          <t>['701', '821', '631']</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="72">
@@ -2213,7 +2213,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['303', '281', '711']</t>
+          <t>['303', '522', '281']</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['649', '661', '663']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['522', '500', '510']</t>
+          <t>['522', '773', '500']</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="75">
@@ -2284,7 +2284,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['492', '522', '821']</t>
+          <t>['821', '492', '522']</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2305,11 +2305,11 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['474', '620', '663']</t>
+          <t>['610', '631', '432']</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="77">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['749', '842', '661']</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['466', '252', '465']</t>
+          <t>['281', '303', '271']</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['663', '661', '466']</t>
+          <t>['259', '282', '251']</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['475', '474', '476']</t>
+          <t>['261', '273', '264']</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2551,11 +2551,11 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['711', '741', '281']</t>
+          <t>['711', '741', '620']</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2576,11 +2576,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['663', '661', '701']</t>
+          <t>['953', '465', '281']</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['472', '561', '107']</t>
+          <t>['561', '107', '472']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2692,17 +2692,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Manufacture of other food products</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Retail sale of food, beverages and tobacco in specialised stores</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Manufacture of other food products</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['821', '181', '741']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2744,17 +2744,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Office administrative and support activities</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Printing and service activities related to printing</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Specialised design activities</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['663', '682', '643']</t>
+          <t>['466', '439', '239']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Other specialised wholesale</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Other specialised construction activities</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['711', '663', '643']</t>
+          <t>['281', '282', '265']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2944,17 +2944,17 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Other financial services activities, except insurance and pension funding activities</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>Fund management activities</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Trusts, funds and similar financial entities</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['661', '663', '643']</t>
+          <t>['812', '910', '960']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2996,17 +2996,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Cleaning activities</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Libraries, archives, museums and other cultural activities</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Other personal service activities</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['663', '472', '643']</t>
+          <t>['472', '107', '103']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3152,17 +3152,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
+          <t>Manufacture of other food products</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Processing and preserving of fruits and vegetables</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['663', '682', '643']</t>
+          <t>['681', '772', '682']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3300,17 +3300,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Real estate activities with own or leased property</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>Renting and leasing of personal and household goods</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>Real estate activities on a fee or commission basis</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['477', '475', '472']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3344,17 +3344,17 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Retail sale of other goods in specialised stores</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Retail sale of other household equipment in specialised stores</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['192', '522', '352']</t>
+          <t>['192', '090', '201']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3401,12 +3401,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Support activities for transportation</t>
+          <t>Service activities incidental to oil and gas extraction (excluding surveying and engineering design and consultancy services supporting mining, oil and gas extraction and offshore exploration activities)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Manufacture of gas; distribution of gaseous fuels through mains</t>
+          <t>Manufacture of basic chemicals, fertilisers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['682', '663', '661']</t>
+          <t>['661', '682', '649']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3448,17 +3448,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Fund management activities</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Other financial services activities, except insurance and pension funding activities</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['264', '262', '741']</t>
+          <t>['262', '264', '261']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3544,17 +3544,17 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
+          <t>Manufacture of computers and peripheral equipment</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>Manufacture of consumer electronics</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Manufacture of computers and peripheral equipment</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Specialised design activities</t>
+          <t>Manufacture of electronic components and boards</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['701', '663', '711']</t>
+          <t>['620', '631', '741']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3596,17 +3596,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Data analytics, processing, hosting and related activities; internet search engines</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Specialised design activities</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['472', '107', '103']</t>
+          <t>['107', '472', '103']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3648,12 +3648,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>Manufacture of other food products</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>Retail sale of food, beverages and tobacco in specialised stores</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Manufacture of other food products</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['239', '439', '431']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3700,17 +3700,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Other specialised construction activities</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Demolition and site preparation</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['663', '701', '643']</t>
+          <t>['631', '620', '701']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3744,17 +3744,17 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Data analytics, processing, hosting and related activities; internet search engines</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>Computer programming, information technology consultancy and related activities</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>Activities of head offices; centralised administrative offices and business representative offices</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['282', '242', '106']</t>
+          <t>['282', '439', '281']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Manufacture of basic precious and non-ferrous metals</t>
+          <t>Other specialised construction activities</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Manufacture of grain mill products, starches and starch products</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['663', '682', '643']</t>
+          <t>['681', '682', '772']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Real estate activities with own or leased property</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Renting and leasing of personal and household goods</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['661', '663', '701']</t>
+          <t>['663', '661', '643']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3900,17 +3900,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>Fund management activities</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Fund management activities</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['682', '663', '643']</t>
+          <t>['682', '681', '431']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4009,12 +4009,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Real estate activities with own or leased property</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Demolition and site preparation</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['711', '282', '281']</t>
+          <t>['429', '422', '439']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4056,17 +4056,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Construction of other civil engineering projects</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Manufacture of special purpose machinery</t>
+          <t>Construction of utility projects</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Manufacture of general purpose machinery</t>
+          <t>Other specialised construction activities</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['661', '649', '643']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>Other financial services activities, except insurance and pension funding activities</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>Trusts, funds and similar financial entities</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['661', '649', '663']</t>
+          <t>['661', '662', '649']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4165,12 +4165,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>Activities auxiliary to insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>Other financial services activities, except insurance and pension funding activities</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Fund management activities</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['682', '663', '681']</t>
+          <t>['701', '682', '711']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4204,17 +4204,17 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Fund management activities</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Real estate activities with own or leased property</t>
+          <t>Architectural and engineering activities and related technical consultancy</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['663', '661', '643']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4256,17 +4256,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Other financial services activities, except insurance and pension funding activities</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>Fund management activities</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['932', '551', '561']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4300,17 +4300,17 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Other amusement and recreation activities</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Short term accommodation activities</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['661', '466', '106']</t>
+          <t>['631', '592', '620']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4396,17 +4396,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Data analytics, processing, hosting and related activities; internet search engines</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Other specialised wholesale</t>
+          <t>Sound recording and music publishing activities</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Manufacture of grain mill products, starches and starch products</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['471', '478', '561']</t>
+          <t>['471', '492', '472']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4445,12 +4445,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Retail sale via stalls and markets</t>
+          <t>Other land transport</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
+          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4492,17 +4492,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['661', '466', '106']</t>
+          <t>['106', '107', '104']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4544,17 +4544,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Manufacture of grain mill products, starches and starch products</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Other specialised wholesale</t>
+          <t>Manufacture of other food products</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Manufacture of grain mill products, starches and starch products</t>
+          <t>Manufacture of vegetable and animal oils and fats</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['663', '474', '741']</t>
+          <t>['741', '329', '181']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4596,17 +4596,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Specialised design activities</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Retail sale of information and communications equipment in specialised stores</t>
+          <t>Other manufacturing n.e.c.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Specialised design activities</t>
+          <t>Printing and service activities related to printing</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['661', '663', '649']</t>
+          <t>['281', '282', '265']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4744,17 +4744,17 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Other financial services activities, except insurance and pension funding activities</t>
+          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['202', '329', '201']</t>
+          <t>['202', '329', '210']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Manufacture of basic chemicals, fertilisers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
+          <t>Manufacture of pharmaceuticals and biological products</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['663', '661', '466']</t>
+          <t>['202', '201', '106']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4848,17 +4848,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Manufacture of other chemical products</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Manufacture of basic chemicals, fertilisers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Other specialised wholesale</t>
+          <t>Manufacture of grain mill products, starches and starch products</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['259', '282', '281']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4892,17 +4892,17 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4936,17 +4936,17 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['682', '471', '663']</t>
+          <t>['471', '681', '682']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4980,17 +4980,17 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
+          <t>Retail sale in non-specialised stores</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Real estate activities with own or leased property</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>Real estate activities on a fee or commission basis</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Retail sale in non-specialised stores</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Fund management activities</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['282', '259', '281']</t>
+          <t>['282', '281', '265']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5037,12 +5037,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Manufacture of general purpose machinery</t>
+          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['711', '701', '620']</t>
+          <t>['701', '821', '522']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5084,17 +5084,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Office administrative and support activities</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Computer programming, information technology consultancy and related activities</t>
+          <t>Support activities for transportation</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['259', '282', '251']</t>
+          <t>['251', '439', '259']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5136,17 +5136,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>Manufacture of structural metal products, tanks, reservoirs and steam generators</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Other specialised construction activities</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>Manufacture of other fabricated metal products; metalworking service activities</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Manufacture of special purpose machinery</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Manufacture of structural metal products, tanks, reservoirs and steam generators</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['711', '721', '265']</t>
+          <t>['282', '265', '202']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5180,17 +5180,17 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Research and experimental development on natural sciences and engineering</t>
+          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Manufacture of measuring, testing, navigating and control equipment; watches and clocks</t>
+          <t>Manufacture of other chemical products</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['474', '620', '741']</t>
+          <t>['271', '432', '274']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5232,17 +5232,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Retail sale of information and communications equipment in specialised stores</t>
+          <t>Manufacture of electric motors, generators, transformers, electricity distribution and control apparatus</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Computer programming, information technology consultancy and related activities</t>
+          <t>Electricity, plumbing and construction installation activities</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Specialised design activities</t>
+          <t>Manufacture of electric lighting equipment</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['474', '741', '661']</t>
+          <t>['701', '702', '749']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5276,17 +5276,17 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Retail sale of information and communications equipment in specialised stores</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Specialised design activities</t>
+          <t>Management consultancy activities</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Professional, scientific and technical activities n.e.c.</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['682', '663', '592']</t>
+          <t>['682', '681', '663']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5333,12 +5333,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
+          <t>Real estate activities with own or leased property</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
           <t>Fund management activities</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Sound recording and music publishing activities</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['663', '682', '643']</t>
+          <t>['682', '681', '663']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5432,17 +5432,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
+          <t>Real estate activities on a fee or commission basis</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Real estate activities with own or leased property</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>Fund management activities</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Real estate activities on a fee or commission basis</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['522', '500', '301']</t>
+          <t>['522', '711', '439']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Water transport</t>
+          <t>Architectural and engineering activities and related technical consultancy</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Building and repairing of ships and boats</t>
+          <t>Other specialised construction activities</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5536,17 +5536,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['701', '663', '661']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5588,17 +5588,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
+          <t>Other financial services activities, except insurance and pension funding activities</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
           <t>Fund management activities</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['011', '014', '103']</t>
+          <t>['032', '014', '011']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5640,17 +5640,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>Operation of fish hatcheries and fish farms</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Animal production</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
           <t>Growing of crops, market gardening and horticulture</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Animal production</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Processing and preserving of fruits and vegetables</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['663', '701', '643']</t>
+          <t>['682', '663', '661']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5692,17 +5692,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
+          <t>Real estate activities on a fee or commission basis</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>Fund management activities</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
-        </is>
-      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['663', '661', '643']</t>
+          <t>['192', '090', '352']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5744,17 +5744,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Manufacture of refined petroleum products</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Service activities incidental to oil and gas extraction (excluding surveying and engineering design and consultancy services supporting mining, oil and gas extraction and offshore exploration activities)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Manufacture of gas; distribution of gaseous fuels through mains</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['561', '472', '478']</t>
+          <t>['107', '106', '103']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5796,17 +5796,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Restaurants, cafes, food courts, food kiosks and bars</t>
+          <t>Manufacture of other food products</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Retail sale of food, beverages and tobacco in specialised stores</t>
+          <t>Manufacture of grain mill products, starches and starch products</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Retail sale via stalls and markets</t>
+          <t>Processing and preserving of fruits and vegetables</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['663', '711', '643']</t>
+          <t>['282', '281', '711']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5900,17 +5900,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
+          <t>Manufacture of general purpose machinery</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
           <t>Architectural and engineering activities and related technical consultancy</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['492', '491', '522']</t>
+          <t>['522', '510', '500']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5952,17 +5952,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Other land transport</t>
+          <t>Support activities for transportation</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Transport via railways</t>
+          <t>Air transport</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Support activities for transportation</t>
+          <t>Water transport</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['682', '681', '475']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6004,17 +6004,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Real estate activities on a fee or commission basis</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Real estate activities with own or leased property</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Retail sale of other household equipment in specialised stores</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['663', '701', '643']</t>
+          <t>['631', '620', '701']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6056,17 +6056,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Data analytics, processing, hosting and related activities; internet search engines</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
+          <t>Computer programming, information technology consultancy and related activities</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
           <t>Activities of head offices; centralised administrative offices and business representative offices</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['749', '661', '702']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6100,17 +6100,17 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Professional, scientific and technical activities n.e.c.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Management consultancy activities</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['663', '701', '682']</t>
+          <t>['701', '821', '631']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6152,17 +6152,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Office administrative and support activities</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or commission basis</t>
+          <t>Data analytics, processing, hosting and related activities; internet search engines</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['303', '281', '711']</t>
+          <t>['303', '522', '281']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
+          <t>Support activities for transportation</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
           <t>Manufacture of general purpose machinery</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['649', '661', '663']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>Other financial services activities, except insurance and pension funding activities</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['522', '500', '510']</t>
+          <t>['522', '773', '500']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6305,12 +6305,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
+          <t>Renting and leasing of other machinery, equipment and tangible goods</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
           <t>Water transport</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Air transport</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['492', '522', '821']</t>
+          <t>['821', '492', '522']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6344,17 +6344,17 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
+          <t>Office administrative and support activities</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>Other land transport</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Support activities for transportation</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Office administrative and support activities</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['474', '620', '663']</t>
+          <t>['610', '631', '432']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6388,17 +6388,17 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Retail sale of information and communications equipment in specialised stores</t>
+          <t>Telecommunications</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Computer programming, information technology consultancy and related activities</t>
+          <t>Data analytics, processing, hosting and related activities; internet search engines</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Electricity, plumbing and construction installation activities</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['749', '842', '661']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6440,12 +6440,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Professional, scientific and technical activities n.e.c.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Provision of services to the community as a whole</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['466', '252', '465']</t>
+          <t>['281', '303', '271']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6492,17 +6492,17 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Other specialised wholesale</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Manufacture of weapons and ammunition</t>
+          <t>Manufacture of air and spacecraft and related machinery</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Wholesale of machinery, equipment and supplies</t>
+          <t>Manufacture of electric motors, generators, transformers, electricity distribution and control apparatus</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['663', '661', '466']</t>
+          <t>['259', '282', '251']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6648,17 +6648,17 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Manufacture of other fabricated metal products; metalworking service activities</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Manufacture of special purpose machinery</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Other specialised wholesale</t>
+          <t>Manufacture of structural metal products, tanks, reservoirs and steam generators</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6752,17 +6752,17 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
+          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Other financial services activities, except insurance and pension funding activities</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
           <t>Fund management activities</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Trusts, funds and similar financial entities</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['475', '474', '476']</t>
+          <t>['261', '273', '264']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Retail sale of other household equipment in specialised stores</t>
+          <t>Manufacture of electronic components and boards</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Retail sale of information and communications equipment in specialised stores</t>
+          <t>Manufacture of wiring and wiring devices</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Retail sale of cultural and recreation goods in specialised stores</t>
+          <t>Manufacture of consumer electronics</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['711', '741', '281']</t>
+          <t>['711', '741', '620']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Manufacture of general purpose machinery</t>
+          <t>Computer programming, information technology consultancy and related activities</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['663', '661', '701']</t>
+          <t>['953', '465', '281']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6952,17 +6952,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Repair and maintenance (including inspection) of vehicles</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Activities auxiliary to financial service activities, except insurance and pension funding</t>
+          <t>Wholesale of machinery, equipment and supplies</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Activities of head offices; centralised administrative offices and business representative offices</t>
+          <t>Manufacture of general purpose machinery</t>
         </is>
       </c>
     </row>
